--- a/danh_sach_nha_cung_cap_14.07.2025_0b03450c24a2c30689f3d1b037a27f61.xlsx
+++ b/danh_sach_nha_cung_cap_14.07.2025_0b03450c24a2c30689f3d1b037a27f61.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dungnt24\Downloads\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33510295-3B3C-4073-8706-641F5AECF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48E282-FBDA-4E0F-A0BE-4C4DDC72928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="990" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="260">
   <si>
     <t>Tên nhà cung cấp *</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>hoa bằng</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
   </si>
   <si>
     <t>Quận Cầu Giấy</t>
@@ -1200,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V15:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
@@ -1362,16 +1359,16 @@
         <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>27</v>
@@ -1391,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
@@ -1439,16 +1436,16 @@
         <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>27</v>
@@ -1468,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -1516,16 +1513,16 @@
         <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>27</v>
@@ -1545,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -1593,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>27</v>
@@ -1622,7 +1619,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -1670,16 +1667,16 @@
         <v>27</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>27</v>
@@ -1699,7 +1696,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -1753,10 +1750,10 @@
         <v>39</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>27</v>
@@ -1776,7 +1773,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1830,10 +1827,10 @@
         <v>42</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>27</v>
@@ -1853,7 +1850,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -1907,10 +1904,10 @@
         <v>45</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>27</v>
@@ -1930,7 +1927,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
@@ -1984,10 +1981,10 @@
         <v>48</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>27</v>
@@ -2007,7 +2004,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -2061,10 +2058,10 @@
         <v>51</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>27</v>
@@ -2084,7 +2081,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2138,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>27</v>
@@ -2161,7 +2158,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -2215,10 +2212,10 @@
         <v>57</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>27</v>
@@ -2238,7 +2235,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -2292,10 +2289,10 @@
         <v>45</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>27</v>
@@ -2315,7 +2312,7 @@
         <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -2369,10 +2366,10 @@
         <v>62</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>27</v>
@@ -2392,7 +2389,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -2446,10 +2443,10 @@
         <v>65</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>27</v>
@@ -2469,7 +2466,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -2523,10 +2520,10 @@
         <v>68</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>27</v>
@@ -2546,7 +2543,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -2600,10 +2597,10 @@
         <v>71</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>27</v>
@@ -2623,7 +2620,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -2677,10 +2674,10 @@
         <v>74</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>27</v>
@@ -2700,7 +2697,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -2754,10 +2751,10 @@
         <v>77</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>27</v>
@@ -2777,7 +2774,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -2831,10 +2828,10 @@
         <v>80</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>27</v>
@@ -2854,7 +2851,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -2908,10 +2905,10 @@
         <v>45</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>27</v>
@@ -2931,7 +2928,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -2985,13 +2982,13 @@
         <v>84</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>27</v>
@@ -3005,19 +3002,19 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>27</v>
@@ -3062,10 +3059,10 @@
         <v>80</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>27</v>
@@ -3082,67 +3079,67 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="S25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>27</v>
@@ -3159,67 +3156,67 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="S26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>27</v>
@@ -3236,67 +3233,67 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="S27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>27</v>
@@ -3313,20 +3310,20 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3364,16 +3361,16 @@
         <v>27</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>27</v>
@@ -3390,73 +3387,73 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -3467,10 +3464,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>26</v>
@@ -3518,16 +3515,16 @@
         <v>27</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>27</v>
@@ -3544,67 +3541,67 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="S31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>27</v>
@@ -3621,67 +3618,67 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="S32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>27</v>
@@ -3698,67 +3695,67 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="S33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>27</v>
@@ -3775,67 +3772,67 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="S34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>27</v>
@@ -3852,67 +3849,67 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="S35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>27</v>
@@ -3929,67 +3926,67 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="S36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>27</v>
@@ -4006,67 +4003,67 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="S37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>27</v>
@@ -4083,67 +4080,67 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="S38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>27</v>
@@ -4160,67 +4157,67 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="S39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>27</v>
@@ -4237,67 +4234,67 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="S40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>27</v>
@@ -4314,67 +4311,67 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="S41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>27</v>
@@ -4391,67 +4388,67 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="S42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>27</v>
@@ -4468,67 +4465,67 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="S43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>27</v>
@@ -4545,67 +4542,67 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="S44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>27</v>
@@ -4622,67 +4619,67 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="S45" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>27</v>
@@ -4699,67 +4696,67 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="S46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>27</v>
@@ -4776,67 +4773,67 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="S47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>27</v>
@@ -4853,67 +4850,67 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="S48" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>27</v>
@@ -4930,67 +4927,67 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="S49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>27</v>
@@ -5007,67 +5004,67 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="S50" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>27</v>
@@ -5084,67 +5081,67 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="S51" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>27</v>
@@ -5161,67 +5158,67 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="S52" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>27</v>
@@ -5238,67 +5235,67 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="S53" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>27</v>
@@ -5315,19 +5312,19 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>27</v>
@@ -5372,10 +5369,10 @@
         <v>45</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>27</v>
@@ -5392,19 +5389,19 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>27</v>
@@ -5449,10 +5446,10 @@
         <v>80</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>27</v>
@@ -5469,19 +5466,19 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>27</v>
@@ -5526,10 +5523,10 @@
         <v>71</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>27</v>
@@ -5546,19 +5543,19 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
@@ -5603,10 +5600,10 @@
         <v>54</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>27</v>
@@ -5623,67 +5620,67 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R58" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="S58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>27</v>
@@ -5700,10 +5697,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>26</v>
@@ -5712,55 +5709,55 @@
         <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="S59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>27</v>
@@ -5777,67 +5774,67 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="S60" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>27</v>
@@ -5854,67 +5851,67 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="S61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>27</v>
@@ -5931,67 +5928,67 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="S62" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>27</v>
@@ -6008,67 +6005,67 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="S63" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>27</v>
